--- a/graph_generation/results_prelim/gpt3.5/level_2/k_0.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_2/k_0.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>prompt</t>
   </si>
@@ -26,36 +28,134 @@
   </si>
   <si>
     <t>evaluator_response</t>
+  </si>
+  <si>
+    <t>evaluator_partial_correctness</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
 what is the shortest path from node A to node J?
    A B C D E F G H I J
- A 0 1 1 1 0 0 0 1 0 0
- B 1 0 0 0 0 0 0 0 0 0
- C 1 0 0 0 0 0 0 0 0 0
- D 1 0 0 0 1 0 1 0 0 0
+ A 0 1 0 0 0 0 0 0 0 0
+ B 1 0 1 1 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0
+ D 0 1 0 0 1 0 0 1 1 0
  E 0 0 0 1 0 1 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 0
- G 0 0 0 1 0 0 0 0 0 0
- H 1 0 0 0 0 0 0 0 1 0
- I 0 0 0 0 0 0 0 1 0 1
+ F 0 0 0 0 1 0 1 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 0 0 1
  J 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; H -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node A to node J, we can use a graph traversal algorithm such as breadth-first search or Dijkstra's algorithm. In this case, since the graph is unweighted, we can use breadth-first search.
-Starting from node A, we traverse the graph in a breadth-first manner, visiting all the neighboring nodes before moving to the next level. We maintain a queue to keep track of the nodes to be visited next. We also maintain a visited set to avoid visiting the same node multiple times.
-The shortest path from A to J can be found by keeping track of the parent of each visited node. Once we reach node J, we can trace back the path by following the parent pointers from J to A.
-Using the given adjacency matrix, the breadth-first search traversal and shortest path can be found as follows:
-A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; H -&gt; J
-Therefore, the shortest path from node A to node J is: A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; H -&gt; J</t>
+    <t>A -&gt; B -&gt; D -&gt; I -&gt; J</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node J is A -&gt; B -&gt; D -&gt; H -&gt; J.</t>
   </si>
   <si>
     <t>Wrong</t>
+  </si>
+  <si>
+    <t>Output: 3/5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+what is the shortest path from node A to node T?
+   A B C D E F G H I J K L M N O P Q R S T
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; E -&gt; G -&gt; J -&gt; L -&gt; M -&gt; N -&gt; P -&gt; Q -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node T, we can use the Breadth-First Search (BFS) algorithm. 
+1. Initialize a queue and an empty list that will store the visited nodes.
+2. Enqueue node A into the queue.
+3. Mark node A as visited by adding it to the visited list.
+4. While the queue is not empty, repeat steps 5-8.
+5. Dequeue a node from the queue.
+6. Check if the dequeued node is node T. If it is, we have found the shortest path from node A to node T. 
+7. If the dequeued node is not node T, find all its adjacent nodes that have not been visited yet.
+8. Enqueue each unvisited adjacent node into the queue and mark them as visited by adding them to the visited list.
+9. If the queue becomes empty, there is no path from node A to node T.
+By following this algorithm, we can find the shortest path from node A to node T.</t>
+  </si>
+  <si>
+    <t>Output: 0/0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+what is the shortest path from node A to node T?
+   A B C D E F G H I J K L M N O P Q R S T
+ A 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1
+ K 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; I -&gt; J -&gt; T</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node T, we can use a breadth-first search algorithm. 
+Starting from node A, we can explore its neighboring nodes (B, C, D, F, and I). From these nodes, we can explore their neighboring nodes and so on, until we reach node T.
+We can maintain a queue to keep track of the nodes to explore next. Initially, we add node A to the queue. 
+Then, while the queue is not empty, we take out the first node from the queue and explore its neighbors. 
+In this case, the neighbors of node A are B, C, D, F, and I. We can add these neighbors to the queue and mark them as visited. 
+Next, we take out the next node from the queue, which is node B, and explore its neighbors. Node B has no neighbors in this case, so we move on to the next node in the queue. 
+We continue this process until we reach node T or until the queue becomes empty. If we reach node T, we have found the shortest path from node A to node T. 
+In the given adjacency matrix, we can observe that nodes A and T are not directly connected, but there is a path that connects them indirectly through other nodes.
+Here is the step-by-step process:
+1. Add node A to the queue.
+2. Remove node A from the queue and mark it as visited.
+3. Explore the neighbors of node A (B, C, D, F, and I).
+4. Add the unvisited neighbors (B, C, D, F, and I) to the queue and mark them as visited.
+5. Remove the next node from the queue.
+6. Continue this process until node T is reached or the queue becomes empty.
+7. If node T is reached, we have found the shortest path from node A to node T.
+8. If the queue becomes empty before reaching node T, there is no path from node A to node T.
+Note: Since the graph is unweighted, we only need to count the number of edges to get the shortest path. We do not consider the weights of the edges.</t>
+  </si>
+  <si>
+    <t>Output: 1/3</t>
   </si>
 </sst>
 </file>
@@ -413,13 +513,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,19 +532,119 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/graph_generation/results_prelim/gpt3.5/level_2/k_0.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_2/k_0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>prompt</t>
   </si>
@@ -34,128 +34,121 @@
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-what is the shortest path from node A to node J?
+what is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
  A 0 1 0 0 0 0 0 0 0 0
- B 1 0 1 1 0 0 0 0 0 0
+ B 1 0 1 1 1 1 0 0 0 0
  C 0 1 0 0 0 0 0 0 0 0
- D 0 1 0 0 1 0 0 1 1 0
- E 0 0 0 1 0 1 0 0 0 0
- F 0 0 0 0 1 0 1 0 0 0
+ D 0 1 0 0 0 0 0 0 0 0
+ E 0 1 0 0 0 0 0 0 0 0
+ F 0 1 0 0 0 0 1 1 0 1
  G 0 0 0 0 0 1 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0
- I 0 0 0 1 0 0 0 0 0 1
- J 0 0 0 0 0 0 0 0 1 0
+ H 0 0 0 0 0 1 0 0 1 0
+ I 0 0 0 0 0 0 0 1 0 0
+ J 0 0 0 0 0 1 0 0 0 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; D -&gt; I -&gt; J</t>
-  </si>
-  <si>
-    <t>The shortest path from node A to node J is A -&gt; B -&gt; D -&gt; H -&gt; J.</t>
-  </si>
-  <si>
-    <t>Wrong</t>
-  </si>
-  <si>
-    <t>Output: 3/5</t>
+    <t>A -&gt; B -&gt; F -&gt; J</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node J is A - B - F - J.</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>4/4</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-what is the shortest path from node A to node T?
+what is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
  A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0
+ D 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0
+ E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ P 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; P -&gt; Q -&gt; T</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node A to node T, we can use Dijkstra's algorithm. 
+1. Start by initializing a list called "distances" to keep track of the minimum distance from node A to each node. Initialize all distances to infinity, except for the distance from node A to itself, which is 0.
+   distances = [0, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity, infinity]
+2. Initialize a list called "visited" to keep track of nodes that have been visited. Set all elements to False initially.
+   visited = [False, False, False, False, False, False, False, False, False, False, False, False, False, False, False, False, False, False, False, False]
+3. Initialize a list called "previous" to keep track of the previous node in the shortest path. Set all elements to None initially.
+   previous = [None, None, None, None, None, None, None, None, None, None, None, None, None, None, None, None, None, None, None, None]
+4. Repeat the following steps until all nodes have been visited:
+   a. Find the node with the minimum distance from the "distances" list that has not been visited yet. Let this node be current_node.
+   b. Mark current_node as visited by setting visited[current_node] = True.
+   c. For each neighbor_node of current_node that has not been visited:
+      - Calculate the distance from node A to neighbor_node through current_node by adding the distance from node A to current_node with the value in the adjacency matrix at the intersection of current_node and neighbor_node.
+      - If this calculated distance is less than the current distance from node A to neighbor_node, update the distance and set previous[neighbor_node] = current_node.
+5. After all nodes have been visited, the shortest path from node A to node T can be reconstructed by backtracking from node T using the previous list. Start from node T and follow the previous node until node A is reached.
+The shortest path from node A to node T is:
+A - B - C - D - R - Q - T</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>4/7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+what is the shortest path from node A to node T? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ F 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0
  O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
  P 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ R 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1
  T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; E -&gt; G -&gt; J -&gt; L -&gt; M -&gt; N -&gt; P -&gt; Q -&gt; S -&gt; T</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node A to node T, we can use the Breadth-First Search (BFS) algorithm. 
-1. Initialize a queue and an empty list that will store the visited nodes.
-2. Enqueue node A into the queue.
-3. Mark node A as visited by adding it to the visited list.
-4. While the queue is not empty, repeat steps 5-8.
-5. Dequeue a node from the queue.
-6. Check if the dequeued node is node T. If it is, we have found the shortest path from node A to node T. 
-7. If the dequeued node is not node T, find all its adjacent nodes that have not been visited yet.
-8. Enqueue each unvisited adjacent node into the queue and mark them as visited by adding them to the visited list.
-9. If the queue becomes empty, there is no path from node A to node T.
-By following this algorithm, we can find the shortest path from node A to node T.</t>
-  </si>
-  <si>
-    <t>Output: 0/0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-what is the shortest path from node A to node T?
-   A B C D E F G H I J K L M N O P Q R S T
- A 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1
- K 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t>A -&gt; I -&gt; J -&gt; T</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node A to node T, we can use a breadth-first search algorithm. 
-Starting from node A, we can explore its neighboring nodes (B, C, D, F, and I). From these nodes, we can explore their neighboring nodes and so on, until we reach node T.
-We can maintain a queue to keep track of the nodes to explore next. Initially, we add node A to the queue. 
-Then, while the queue is not empty, we take out the first node from the queue and explore its neighbors. 
-In this case, the neighbors of node A are B, C, D, F, and I. We can add these neighbors to the queue and mark them as visited. 
-Next, we take out the next node from the queue, which is node B, and explore its neighbors. Node B has no neighbors in this case, so we move on to the next node in the queue. 
-We continue this process until we reach node T or until the queue becomes empty. If we reach node T, we have found the shortest path from node A to node T. 
-In the given adjacency matrix, we can observe that nodes A and T are not directly connected, but there is a path that connects them indirectly through other nodes.
-Here is the step-by-step process:
-1. Add node A to the queue.
-2. Remove node A from the queue and mark it as visited.
-3. Explore the neighbors of node A (B, C, D, F, and I).
-4. Add the unvisited neighbors (B, C, D, F, and I) to the queue and mark them as visited.
-5. Remove the next node from the queue.
-6. Continue this process until node T is reached or the queue becomes empty.
-7. If node T is reached, we have found the shortest path from node A to node T.
-8. If the queue becomes empty before reaching node T, there is no path from node A to node T.
-Note: Since the graph is unweighted, we only need to count the number of edges to get the shortest path. We do not consider the weights of the edges.</t>
-  </si>
-  <si>
-    <t>Output: 1/3</t>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; R -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>The shortest path from node A to node T can be found using Dijkstra's algorithm. Starting from node A, we will iterate through the neighboring nodes and update the distance to reach each node. We will continue this process until we reach node T.
+The sequence of nodes in the shortest path from node A to node T is as follows:
+A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; O -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>5/8</t>
   </si>
 </sst>
 </file>
@@ -594,10 +587,10 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -632,19 +625,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
